--- a/test/usdyc.xlsx
+++ b/test/usdyc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -273,7 +273,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1247,901 +1247,901 @@
                   <c:v>6.5591799559473864E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0283697105555515E-2</c:v>
+                  <c:v>8.6215806581484439E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0283697105555515E-2</c:v>
+                  <c:v>1.4019574794496056E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0283697105555515E-2</c:v>
+                  <c:v>1.046177669836189E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.046177669836189E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.046177669836189E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.175175654536768E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.175175654536768E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.175175654536768E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.2672414635372817E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.2672414635372817E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.3951875795264084E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.3951875795264084E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.3951875795264084E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.493696978079187E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.493696978079187E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.606088115549504E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.606088115549504E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.606088115549504E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.7172668447635066E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.7172668447635066E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.8373035128629596E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.8373035128629596E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.8373035128629596E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.9179949444512699E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>1.9179949444512699E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.0149582002325334E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.0149582002325334E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.0149582002325334E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.0981494132203623E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.0981494132203623E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.1422515791511082E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.3696343422812904E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5399657318639669E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.6421141886880693E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.668045024594836E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7677236009173586E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7772325770030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8128174148973478E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.8051326037384045E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.7600080730395698E-2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.664122250654085E-2</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2.5270297346217076E-2</c:v>
+                  <c:v>2.5859958276457606E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,11 +2156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430286848"/>
-        <c:axId val="430283320"/>
+        <c:axId val="219773968"/>
+        <c:axId val="219771224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430286848"/>
+        <c:axId val="219773968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,12 +2217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430283320"/>
+        <c:crossAx val="219771224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430283320"/>
+        <c:axId val="219771224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430286848"/>
+        <c:crossAx val="219773968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3186,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3208,7 +3208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U306"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3294,26 +3296,26 @@
       </c>
       <c r="L6">
         <f>_xll.INSTRUMENT.CASH.DEPOSIT(H6,D6/100,K6)</f>
-        <v>432834304</v>
+        <v>428388512</v>
       </c>
       <c r="M6">
         <f>_xll.INSTRUMENT.FIX(L6, Valuation, Valuation)</f>
-        <v>432834304</v>
+        <v>428388512</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="P6">
         <f>M6</f>
-        <v>432834304</v>
+        <v>428388512</v>
       </c>
       <c r="Q6">
         <f>N6</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>_xll.PWFLAT.BOOTSTRAP(P6:P8, Q6:Q8)</f>
-        <v>432302984</v>
+        <f>_xll.PWFLAT.BOOTSTRAP(P6:P31, Q6:Q31)</f>
+        <v>221600968</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3348,29 +3350,29 @@
       </c>
       <c r="L7">
         <f>_xll.INSTRUMENT.CASH.DEPOSIT(H7,D7/100,K7)</f>
-        <v>426842984</v>
+        <v>428387456</v>
       </c>
       <c r="M7">
         <f>_xll.INSTRUMENT.FIX(L7, Valuation, Valuation)</f>
-        <v>426842984</v>
+        <v>428387456</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="P7">
-        <f>M12</f>
-        <v>432834920</v>
+        <f t="shared" ref="P7:P8" si="2">M7</f>
+        <v>428387456</v>
       </c>
       <c r="Q7">
-        <f>N12</f>
-        <v>0</v>
+        <f t="shared" ref="Q7:Q8" si="3">N7</f>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0.1</v>
       </c>
       <c r="U7" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T7)</f>
-        <v>1.0283697105555515E-2</v>
+        <v>8.6215806581484439E-3</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3398,51 +3400,67 @@
       </c>
       <c r="L8">
         <f>_xll.INSTRUMENT.CASH.DEPOSIT(H8,D8/100,K8)</f>
-        <v>426843600</v>
+        <v>428388160</v>
       </c>
       <c r="M8">
         <f>_xll.INSTRUMENT.FIX(L8, Valuation, Valuation)</f>
-        <v>426843600</v>
+        <v>428388160</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="P8">
-        <f>M40</f>
-        <v>426846856</v>
+        <f t="shared" si="2"/>
+        <v>428388160</v>
       </c>
       <c r="Q8">
-        <f>N40</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0.2</v>
       </c>
       <c r="U8" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T8)</f>
-        <v>1.0283697105555515E-2</v>
+        <v>1.4019574794496056E-2</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="J9" s="1"/>
+      <c r="P9">
+        <f>M13</f>
+        <v>428385696</v>
+      </c>
+      <c r="Q9">
+        <f>N13</f>
+        <v>0</v>
+      </c>
       <c r="T9">
         <v>0.30000000000000004</v>
       </c>
       <c r="U9" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T9)</f>
-        <v>1.0283697105555515E-2</v>
+        <v>1.046177669836189E-2</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>57</v>
       </c>
+      <c r="P10">
+        <f t="shared" ref="P10:Q10" si="4">M14</f>
+        <v>428386400</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T10">
         <v>0.4</v>
       </c>
       <c r="U10" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T10)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.046177669836189E-2</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3464,12 +3482,20 @@
       <c r="J11" t="s">
         <v>40</v>
       </c>
+      <c r="P11">
+        <f t="shared" ref="P11:Q11" si="5">M15</f>
+        <v>428386048</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="T11">
         <v>0.5</v>
       </c>
       <c r="U11" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T11)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.046177669836189E-2</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3507,21 +3533,29 @@
       </c>
       <c r="L12">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F12/100, K12)</f>
-        <v>432834920</v>
+        <v>428385168</v>
       </c>
       <c r="M12">
         <f>_xll.INSTRUMENT.FIX(L12, Valuation, J12)</f>
-        <v>432834920</v>
+        <v>428385168</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="P12">
+        <f t="shared" ref="P12:Q12" si="6">M16</f>
+        <v>428387104</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="T12">
         <v>0.6</v>
       </c>
       <c r="U12" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T12)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.175175654536768E-2</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3538,15 +3572,15 @@
         <v>98.97</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F23" si="2">AVERAGE(D13:E13)</f>
+        <f t="shared" ref="F13:F23" si="7">AVERAGE(D13:E13)</f>
         <v>98.967500000000001</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13:H23" si="3">LEFT(C13,3)</f>
+        <f t="shared" ref="H13:H23" si="8">LEFT(C13,3)</f>
         <v>MAR</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I23" si="4">RIGHT(C13,2)</f>
+        <f t="shared" ref="I13:I23" si="9">RIGHT(C13,2)</f>
         <v>17</v>
       </c>
       <c r="J13" s="1">
@@ -3559,21 +3593,29 @@
       </c>
       <c r="L13">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F13/100, K13)</f>
-        <v>218224936</v>
+        <v>428385696</v>
       </c>
       <c r="M13">
         <f>_xll.INSTRUMENT.FIX(L13, Valuation, J13)</f>
-        <v>218224936</v>
+        <v>428385696</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
+      <c r="P13">
+        <f t="shared" ref="P13:Q13" si="10">M17</f>
+        <v>428387632</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="T13">
         <v>0.7</v>
       </c>
       <c r="U13" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T13)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.175175654536768E-2</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3590,15 +3632,15 @@
         <v>98.844999999999999</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.84</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>JUN</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="J14" s="1">
@@ -3611,21 +3653,29 @@
       </c>
       <c r="L14">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F14/100, K14)</f>
-        <v>218223088</v>
+        <v>428386400</v>
       </c>
       <c r="M14">
         <f>_xll.INSTRUMENT.FIX(L14, Valuation, J14)</f>
-        <v>218223088</v>
+        <v>428386400</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="P14">
+        <f t="shared" ref="P14:Q14" si="11">M18</f>
+        <v>428388424</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="T14">
         <v>0.79999999999999993</v>
       </c>
       <c r="U14" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T14)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.175175654536768E-2</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3642,15 +3692,15 @@
         <v>98.754999999999995</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.75</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>SEP</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="J15" s="1">
@@ -3663,21 +3713,29 @@
       </c>
       <c r="L15">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F15/100, K15)</f>
-        <v>218225816</v>
+        <v>428386048</v>
       </c>
       <c r="M15">
         <f>_xll.INSTRUMENT.FIX(L15, Valuation, J15)</f>
-        <v>218225816</v>
+        <v>428386048</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="P15">
+        <f t="shared" ref="P15:Q15" si="12">M19</f>
+        <v>428385432</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="T15">
         <v>0.89999999999999991</v>
       </c>
       <c r="U15" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T15)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.2672414635372817E-2</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3694,15 +3752,15 @@
         <v>98.625</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.622500000000002</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>DEC</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="J16" s="1">
@@ -3715,21 +3773,29 @@
       </c>
       <c r="L16">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F16/100, K16)</f>
-        <v>218221328</v>
+        <v>428387104</v>
       </c>
       <c r="M16">
         <f>_xll.INSTRUMENT.FIX(L16, Valuation, J16)</f>
-        <v>218221328</v>
+        <v>428387104</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="P16">
+        <f t="shared" ref="P16:Q16" si="13">M20</f>
+        <v>428386488</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="T16">
         <v>0.99999999999999989</v>
       </c>
       <c r="U16" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T16)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.2672414635372817E-2</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3746,15 +3812,15 @@
         <v>98.53</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.525000000000006</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>MAR</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J17" s="1">
@@ -3767,21 +3833,29 @@
       </c>
       <c r="L17">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F17/100, K17)</f>
-        <v>218225112</v>
+        <v>428387632</v>
       </c>
       <c r="M17">
         <f>_xll.INSTRUMENT.FIX(L17, Valuation, J17)</f>
-        <v>218225112</v>
+        <v>428387632</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
+      <c r="P17">
+        <f t="shared" ref="P17:Q17" si="14">M21</f>
+        <v>428390360</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="T17">
         <v>1.0999999999999999</v>
       </c>
       <c r="U17" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T17)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.3951875795264084E-2</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3798,15 +3872,15 @@
         <v>98.42</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.414999999999992</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>JUN</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J18" s="1">
@@ -3819,21 +3893,29 @@
       </c>
       <c r="L18">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F18/100, K18)</f>
-        <v>218224672</v>
+        <v>428388424</v>
       </c>
       <c r="M18">
         <f>_xll.INSTRUMENT.FIX(L18, Valuation, J18)</f>
-        <v>218224672</v>
+        <v>428388424</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="P18">
+        <f t="shared" ref="P18:Q18" si="15">M22</f>
+        <v>428387544</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="T18">
         <v>1.2</v>
       </c>
       <c r="U18" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T18)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.3951875795264084E-2</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3850,15 +3932,15 @@
         <v>98.31</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.305000000000007</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>SEP</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J19" s="1">
@@ -3871,21 +3953,29 @@
       </c>
       <c r="L19">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F19/100, K19)</f>
-        <v>218223000</v>
+        <v>428385432</v>
       </c>
       <c r="M19">
         <f>_xll.INSTRUMENT.FIX(L19, Valuation, J19)</f>
-        <v>218223000</v>
+        <v>428385432</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
+      <c r="P19">
+        <f t="shared" ref="P19:Q19" si="16">M23</f>
+        <v>428387280</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="T19">
         <v>1.3</v>
       </c>
       <c r="U19" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T19)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.3951875795264084E-2</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3902,15 +3992,15 @@
         <v>98.19</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.185000000000002</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>DEC</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J20" s="1">
@@ -3923,21 +4013,29 @@
       </c>
       <c r="L20">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F20/100, K20)</f>
-        <v>218224144</v>
+        <v>428386488</v>
       </c>
       <c r="M20">
         <f>_xll.INSTRUMENT.FIX(L20, Valuation, J20)</f>
-        <v>218224144</v>
+        <v>428386488</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="P20">
+        <f>M29</f>
+        <v>428386840</v>
+      </c>
+      <c r="Q20">
+        <f>N27</f>
+        <v>0</v>
+      </c>
       <c r="T20">
         <v>1.4000000000000001</v>
       </c>
       <c r="U20" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T20)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.493696978079187E-2</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -3954,15 +4052,15 @@
         <v>98.11</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.10499999999999</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>MAR</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="J21" s="1">
@@ -3975,21 +4073,29 @@
       </c>
       <c r="L21">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F21/100, K21)</f>
-        <v>218222120</v>
+        <v>428390360</v>
       </c>
       <c r="M21">
         <f>_xll.INSTRUMENT.FIX(L21, Valuation, J21)</f>
-        <v>218222120</v>
+        <v>428390360</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P51" si="17">M30</f>
+        <v>428389480</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q51" si="18">N28</f>
+        <v>0</v>
+      </c>
       <c r="T21">
         <v>1.5000000000000002</v>
       </c>
       <c r="U21" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T21)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.493696978079187E-2</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4006,15 +4112,15 @@
         <v>98.015000000000001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.009999999999991</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>JUN</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="J22" s="1">
@@ -4027,21 +4133,29 @@
       </c>
       <c r="L22">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F22/100, K22)</f>
-        <v>218222912</v>
+        <v>428387544</v>
       </c>
       <c r="M22">
         <f>_xll.INSTRUMENT.FIX(L22, Valuation, J22)</f>
-        <v>218222912</v>
+        <v>428387544</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="17"/>
+        <v>428385344</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T22">
         <v>1.6000000000000003</v>
       </c>
       <c r="U22" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T22)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.606088115549504E-2</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4058,15 +4172,15 @@
         <v>97.93</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>97.927500000000009</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>SEP</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="J23" s="1">
@@ -4079,30 +4193,46 @@
       </c>
       <c r="L23">
         <f>_xll.INSTRUMENT.FORWARD.RATE.AGREEMENT(3, 1-F23/100, K23)</f>
-        <v>218222560</v>
+        <v>428387280</v>
       </c>
       <c r="M23">
         <f>_xll.INSTRUMENT.FIX(L23, Valuation, J23)</f>
-        <v>218222560</v>
+        <v>428387280</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="17"/>
+        <v>428386664</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T23">
         <v>1.7000000000000004</v>
       </c>
       <c r="U23" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T23)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.606088115549504E-2</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24">
+        <f t="shared" si="17"/>
+        <v>428386136</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T24">
         <v>1.8000000000000005</v>
       </c>
       <c r="U24" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T24)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.606088115549504E-2</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4112,12 +4242,20 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="17"/>
+        <v>428387720</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T25">
         <v>1.9000000000000006</v>
       </c>
       <c r="U25" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T25)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.7172668447635066E-2</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4136,12 +4274,20 @@
       <c r="F26" t="s">
         <v>34</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="17"/>
+        <v>428385960</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T26">
         <v>2.0000000000000004</v>
       </c>
       <c r="U26" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T26)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.7172668447635066E-2</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4170,21 +4316,29 @@
       </c>
       <c r="L27">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C27, F27/100, J27, K27)</f>
-        <v>432833776</v>
+        <v>428387808</v>
       </c>
       <c r="M27">
         <f>_xll.INSTRUMENT.FIX(L27,Valuation,Valuation)</f>
-        <v>432833776</v>
+        <v>428387808</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="17"/>
+        <v>428386312</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T27">
         <v>2.1000000000000005</v>
       </c>
       <c r="U27" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T27)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.8373035128629596E-2</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4213,21 +4367,29 @@
       </c>
       <c r="L28">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C28, F28/100, J28, K28)</f>
-        <v>426847032</v>
+        <v>428389392</v>
       </c>
       <c r="M28">
         <f>_xll.INSTRUMENT.FIX(L28,Valuation,Valuation)</f>
-        <v>426847032</v>
+        <v>428389392</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="17"/>
+        <v>428386224</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T28">
         <v>2.2000000000000006</v>
       </c>
       <c r="U28" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T28)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.8373035128629596E-2</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4256,21 +4418,29 @@
       </c>
       <c r="L29">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C29, F29/100, J29, K29)</f>
-        <v>426846416</v>
+        <v>428386840</v>
       </c>
       <c r="M29">
         <f>_xll.INSTRUMENT.FIX(L29,Valuation,Valuation)</f>
-        <v>426846416</v>
+        <v>428386840</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="17"/>
+        <v>428386752</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>2.3000000000000007</v>
       </c>
       <c r="U29" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T29)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.8373035128629596E-2</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4299,21 +4469,29 @@
       </c>
       <c r="L30">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C30, F30/100, J30, K30)</f>
-        <v>426845448</v>
+        <v>428389480</v>
       </c>
       <c r="M30">
         <f>_xll.INSTRUMENT.FIX(L30,Valuation,Valuation)</f>
-        <v>426845448</v>
+        <v>428389480</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="17"/>
+        <v>428388600</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T30">
         <v>2.4000000000000008</v>
       </c>
       <c r="U30" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T30)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.9179949444512699E-2</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4342,21 +4520,29 @@
       </c>
       <c r="L31">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C31, F31/100, J31, K31)</f>
-        <v>426845360</v>
+        <v>428385344</v>
       </c>
       <c r="M31">
         <f>_xll.INSTRUMENT.FIX(L31,Valuation,Valuation)</f>
-        <v>426845360</v>
+        <v>428385344</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="17"/>
+        <v>428387368</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="T31">
         <v>2.5000000000000009</v>
       </c>
       <c r="U31" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T31)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>1.9179949444512699E-2</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4385,11 +4571,11 @@
       </c>
       <c r="L32">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C32, F32/100, J32, K32)</f>
-        <v>426845888</v>
+        <v>428386664</v>
       </c>
       <c r="M32">
         <f>_xll.INSTRUMENT.FIX(L32,Valuation,Valuation)</f>
-        <v>426845888</v>
+        <v>428386664</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4399,7 +4585,7 @@
       </c>
       <c r="U32" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T32)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.0149582002325334E-2</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4428,11 +4614,11 @@
       </c>
       <c r="L33">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C33, F33/100, J33, K33)</f>
-        <v>426845008</v>
+        <v>428386136</v>
       </c>
       <c r="M33">
         <f>_xll.INSTRUMENT.FIX(L33,Valuation,Valuation)</f>
-        <v>426845008</v>
+        <v>428386136</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4442,7 +4628,7 @@
       </c>
       <c r="U33" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T33)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.0149582002325334E-2</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4471,11 +4657,11 @@
       </c>
       <c r="L34">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C34, F34/100, J34, K34)</f>
-        <v>426846768</v>
+        <v>428387720</v>
       </c>
       <c r="M34">
         <f>_xll.INSTRUMENT.FIX(L34,Valuation,Valuation)</f>
-        <v>426846768</v>
+        <v>428387720</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4485,7 +4671,7 @@
       </c>
       <c r="U34" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T34)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.0149582002325334E-2</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4514,11 +4700,11 @@
       </c>
       <c r="L35">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C35, F35/100, J35, K35)</f>
-        <v>426845184</v>
+        <v>428385960</v>
       </c>
       <c r="M35">
         <f>_xll.INSTRUMENT.FIX(L35,Valuation,Valuation)</f>
-        <v>426845184</v>
+        <v>428385960</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4528,7 +4714,7 @@
       </c>
       <c r="U35" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T35)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.0981494132203623E-2</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4557,11 +4743,11 @@
       </c>
       <c r="L36">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C36, F36/100, J36, K36)</f>
-        <v>426846152</v>
+        <v>428386312</v>
       </c>
       <c r="M36">
         <f>_xll.INSTRUMENT.FIX(L36,Valuation,Valuation)</f>
-        <v>426846152</v>
+        <v>428386312</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4571,7 +4757,7 @@
       </c>
       <c r="U36" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T36)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.0981494132203623E-2</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4600,11 +4786,11 @@
       </c>
       <c r="L37">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C37, F37/100, J37, K37)</f>
-        <v>426844920</v>
+        <v>428386224</v>
       </c>
       <c r="M37">
         <f>_xll.INSTRUMENT.FIX(L37,Valuation,Valuation)</f>
-        <v>426844920</v>
+        <v>428386224</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4614,7 +4800,7 @@
       </c>
       <c r="U37" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T37)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4643,11 +4829,11 @@
       </c>
       <c r="L38">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C38, F38/100, J38, K38)</f>
-        <v>426847120</v>
+        <v>428386752</v>
       </c>
       <c r="M38">
         <f>_xll.INSTRUMENT.FIX(L38,Valuation,Valuation)</f>
-        <v>426847120</v>
+        <v>428386752</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4657,7 +4843,7 @@
       </c>
       <c r="U38" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T38)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4686,11 +4872,11 @@
       </c>
       <c r="L39">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C39, F39/100, J39, K39)</f>
-        <v>426845096</v>
+        <v>428388600</v>
       </c>
       <c r="M39">
         <f>_xll.INSTRUMENT.FIX(L39,Valuation,Valuation)</f>
-        <v>426845096</v>
+        <v>428388600</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4700,7 +4886,7 @@
       </c>
       <c r="U39" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T39)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4729,11 +4915,11 @@
       </c>
       <c r="L40">
         <f>_xll.INSTRUMENT.INTEREST.RATE.SWAP(C40, F40/100, J40, K40)</f>
-        <v>426846856</v>
+        <v>428387368</v>
       </c>
       <c r="M40">
         <f>_xll.INSTRUMENT.FIX(L40,Valuation,Valuation)</f>
-        <v>426846856</v>
+        <v>428387368</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4743,7 +4929,7 @@
       </c>
       <c r="U40" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T40)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4752,7 +4938,7 @@
       </c>
       <c r="U41" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T41)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4761,7 +4947,7 @@
       </c>
       <c r="U42" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T42)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4770,7 +4956,7 @@
       </c>
       <c r="U43" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T43)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4779,7 +4965,7 @@
       </c>
       <c r="U44" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T44)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4788,7 +4974,7 @@
       </c>
       <c r="U45" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T45)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.1422515791511082E-2</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4797,7 +4983,7 @@
       </c>
       <c r="U46" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T46)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4806,7 +4992,7 @@
       </c>
       <c r="U47" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T47)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.55000000000000004">
@@ -4815,7 +5001,7 @@
       </c>
       <c r="U48" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T48)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="49" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4824,7 +5010,7 @@
       </c>
       <c r="U49" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T49)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="50" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4833,7 +5019,7 @@
       </c>
       <c r="U50" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T50)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="51" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4842,7 +5028,7 @@
       </c>
       <c r="U51" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T51)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="52" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4851,7 +5037,7 @@
       </c>
       <c r="U52" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T52)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="53" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4860,7 +5046,7 @@
       </c>
       <c r="U53" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T53)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="54" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4869,7 +5055,7 @@
       </c>
       <c r="U54" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T54)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="55" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4878,7 +5064,7 @@
       </c>
       <c r="U55" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T55)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.3696343422812904E-2</v>
       </c>
     </row>
     <row r="56" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4887,7 +5073,7 @@
       </c>
       <c r="U56" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T56)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="57" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4896,7 +5082,7 @@
       </c>
       <c r="U57" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T57)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="58" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4905,7 +5091,7 @@
       </c>
       <c r="U58" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T58)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="59" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4914,7 +5100,7 @@
       </c>
       <c r="U59" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T59)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="60" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4923,7 +5109,7 @@
       </c>
       <c r="U60" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T60)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="61" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4932,7 +5118,7 @@
       </c>
       <c r="U61" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T61)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="62" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4941,7 +5127,7 @@
       </c>
       <c r="U62" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T62)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="63" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4950,7 +5136,7 @@
       </c>
       <c r="U63" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T63)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="64" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4959,7 +5145,7 @@
       </c>
       <c r="U64" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T64)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="65" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4968,7 +5154,7 @@
       </c>
       <c r="U65" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T65)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5399657318639669E-2</v>
       </c>
     </row>
     <row r="66" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4977,7 +5163,7 @@
       </c>
       <c r="U66" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T66)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="67" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4986,7 +5172,7 @@
       </c>
       <c r="U67" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T67)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="68" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -4995,7 +5181,7 @@
       </c>
       <c r="U68" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T68)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="69" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5004,7 +5190,7 @@
       </c>
       <c r="U69" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T69)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="70" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5013,7 +5199,7 @@
       </c>
       <c r="U70" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T70)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="71" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5022,7 +5208,7 @@
       </c>
       <c r="U71" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T71)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="72" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5031,7 +5217,7 @@
       </c>
       <c r="U72" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T72)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="73" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5040,7 +5226,7 @@
       </c>
       <c r="U73" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T73)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="74" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5049,7 +5235,7 @@
       </c>
       <c r="U74" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T74)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="75" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5058,7 +5244,7 @@
       </c>
       <c r="U75" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T75)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.6421141886880693E-2</v>
       </c>
     </row>
     <row r="76" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5067,7 +5253,7 @@
       </c>
       <c r="U76" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T76)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="77" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5076,7 +5262,7 @@
       </c>
       <c r="U77" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T77)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="78" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5085,7 +5271,7 @@
       </c>
       <c r="U78" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T78)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="79" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5094,7 +5280,7 @@
       </c>
       <c r="U79" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T79)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="80" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5103,7 +5289,7 @@
       </c>
       <c r="U80" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T80)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="81" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5112,7 +5298,7 @@
       </c>
       <c r="U81" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T81)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="82" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5121,7 +5307,7 @@
       </c>
       <c r="U82" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T82)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="83" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5130,7 +5316,7 @@
       </c>
       <c r="U83" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T83)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="84" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5139,7 +5325,7 @@
       </c>
       <c r="U84" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T84)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="85" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5148,7 +5334,7 @@
       </c>
       <c r="U85" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T85)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="86" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5157,7 +5343,7 @@
       </c>
       <c r="U86" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T86)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.668045024594836E-2</v>
       </c>
     </row>
     <row r="87" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5166,7 +5352,7 @@
       </c>
       <c r="U87" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T87)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="88" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5175,7 +5361,7 @@
       </c>
       <c r="U88" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T88)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="89" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5184,7 +5370,7 @@
       </c>
       <c r="U89" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T89)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="90" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5193,7 +5379,7 @@
       </c>
       <c r="U90" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T90)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="91" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5202,7 +5388,7 @@
       </c>
       <c r="U91" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T91)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="92" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5211,7 +5397,7 @@
       </c>
       <c r="U92" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T92)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="93" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5220,7 +5406,7 @@
       </c>
       <c r="U93" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T93)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="94" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5229,7 +5415,7 @@
       </c>
       <c r="U94" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T94)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="95" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5238,7 +5424,7 @@
       </c>
       <c r="U95" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T95)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7677236009173586E-2</v>
       </c>
     </row>
     <row r="96" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5247,7 +5433,7 @@
       </c>
       <c r="U96" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T96)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="97" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5256,7 +5442,7 @@
       </c>
       <c r="U97" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T97)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="98" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5265,7 +5451,7 @@
       </c>
       <c r="U98" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T98)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="99" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5274,7 +5460,7 @@
       </c>
       <c r="U99" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T99)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="100" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5283,7 +5469,7 @@
       </c>
       <c r="U100" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T100)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="101" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5292,7 +5478,7 @@
       </c>
       <c r="U101" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T101)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="102" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5301,7 +5487,7 @@
       </c>
       <c r="U102" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T102)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="103" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5310,7 +5496,7 @@
       </c>
       <c r="U103" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T103)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="104" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5319,7 +5505,7 @@
       </c>
       <c r="U104" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T104)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="105" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5328,7 +5514,7 @@
       </c>
       <c r="U105" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T105)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7772325770030484E-2</v>
       </c>
     </row>
     <row r="106" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5337,7 +5523,7 @@
       </c>
       <c r="U106" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T106)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="107" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5346,7 +5532,7 @@
       </c>
       <c r="U107" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T107)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="108" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5355,7 +5541,7 @@
       </c>
       <c r="U108" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T108)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="109" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5364,7 +5550,7 @@
       </c>
       <c r="U109" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T109)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="110" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5373,7 +5559,7 @@
       </c>
       <c r="U110" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T110)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="111" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5382,7 +5568,7 @@
       </c>
       <c r="U111" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T111)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="112" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5391,7 +5577,7 @@
       </c>
       <c r="U112" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T112)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="113" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5400,7 +5586,7 @@
       </c>
       <c r="U113" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T113)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="114" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5409,7 +5595,7 @@
       </c>
       <c r="U114" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T114)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="115" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5418,7 +5604,7 @@
       </c>
       <c r="U115" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T115)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="116" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5427,7 +5613,7 @@
       </c>
       <c r="U116" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T116)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="117" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5436,7 +5622,7 @@
       </c>
       <c r="U117" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T117)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="118" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5445,7 +5631,7 @@
       </c>
       <c r="U118" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T118)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="119" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5454,7 +5640,7 @@
       </c>
       <c r="U119" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T119)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="120" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5463,7 +5649,7 @@
       </c>
       <c r="U120" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T120)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="121" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5472,7 +5658,7 @@
       </c>
       <c r="U121" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T121)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="122" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5481,7 +5667,7 @@
       </c>
       <c r="U122" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T122)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="123" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5490,7 +5676,7 @@
       </c>
       <c r="U123" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T123)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="124" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5499,7 +5685,7 @@
       </c>
       <c r="U124" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T124)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="125" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5508,7 +5694,7 @@
       </c>
       <c r="U125" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T125)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="126" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5517,7 +5703,7 @@
       </c>
       <c r="U126" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T126)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8128174148973478E-2</v>
       </c>
     </row>
     <row r="127" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5526,7 +5712,7 @@
       </c>
       <c r="U127" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T127)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="128" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5535,7 +5721,7 @@
       </c>
       <c r="U128" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T128)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="129" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5544,7 +5730,7 @@
       </c>
       <c r="U129" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T129)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="130" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5553,7 +5739,7 @@
       </c>
       <c r="U130" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T130)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="131" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5562,7 +5748,7 @@
       </c>
       <c r="U131" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T131)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="132" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5571,7 +5757,7 @@
       </c>
       <c r="U132" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T132)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="133" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5580,7 +5766,7 @@
       </c>
       <c r="U133" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T133)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="134" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5589,7 +5775,7 @@
       </c>
       <c r="U134" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T134)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="135" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5598,7 +5784,7 @@
       </c>
       <c r="U135" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T135)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="136" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5607,7 +5793,7 @@
       </c>
       <c r="U136" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T136)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="137" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5616,7 +5802,7 @@
       </c>
       <c r="U137" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T137)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="138" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5625,7 +5811,7 @@
       </c>
       <c r="U138" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T138)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="139" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5634,7 +5820,7 @@
       </c>
       <c r="U139" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T139)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="140" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5643,7 +5829,7 @@
       </c>
       <c r="U140" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T140)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="141" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5652,7 +5838,7 @@
       </c>
       <c r="U141" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T141)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="142" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5661,7 +5847,7 @@
       </c>
       <c r="U142" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T142)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="143" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5670,7 +5856,7 @@
       </c>
       <c r="U143" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T143)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="144" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5679,7 +5865,7 @@
       </c>
       <c r="U144" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T144)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="145" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5688,7 +5874,7 @@
       </c>
       <c r="U145" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T145)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="146" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5697,7 +5883,7 @@
       </c>
       <c r="U146" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T146)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="147" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5706,7 +5892,7 @@
       </c>
       <c r="U147" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T147)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="148" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5715,7 +5901,7 @@
       </c>
       <c r="U148" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T148)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="149" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5724,7 +5910,7 @@
       </c>
       <c r="U149" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T149)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="150" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5733,7 +5919,7 @@
       </c>
       <c r="U150" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T150)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="151" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5742,7 +5928,7 @@
       </c>
       <c r="U151" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T151)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="152" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5751,7 +5937,7 @@
       </c>
       <c r="U152" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T152)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="153" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5760,7 +5946,7 @@
       </c>
       <c r="U153" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T153)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="154" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5769,7 +5955,7 @@
       </c>
       <c r="U154" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T154)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="155" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5778,7 +5964,7 @@
       </c>
       <c r="U155" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T155)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.8051326037384045E-2</v>
       </c>
     </row>
     <row r="156" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5787,7 +5973,7 @@
       </c>
       <c r="U156" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T156)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="157" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5796,7 +5982,7 @@
       </c>
       <c r="U157" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T157)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="158" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5805,7 +5991,7 @@
       </c>
       <c r="U158" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T158)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="159" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5814,7 +6000,7 @@
       </c>
       <c r="U159" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T159)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="160" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5823,7 +6009,7 @@
       </c>
       <c r="U160" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T160)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="161" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5832,7 +6018,7 @@
       </c>
       <c r="U161" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T161)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="162" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5841,7 +6027,7 @@
       </c>
       <c r="U162" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T162)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="163" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5850,7 +6036,7 @@
       </c>
       <c r="U163" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T163)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="164" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5859,7 +6045,7 @@
       </c>
       <c r="U164" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T164)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="165" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5868,7 +6054,7 @@
       </c>
       <c r="U165" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T165)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="166" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5877,7 +6063,7 @@
       </c>
       <c r="U166" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T166)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="167" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5886,7 +6072,7 @@
       </c>
       <c r="U167" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T167)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="168" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5895,7 +6081,7 @@
       </c>
       <c r="U168" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T168)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="169" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5904,7 +6090,7 @@
       </c>
       <c r="U169" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T169)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="170" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5913,7 +6099,7 @@
       </c>
       <c r="U170" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T170)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="171" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5922,7 +6108,7 @@
       </c>
       <c r="U171" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T171)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="172" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5931,7 +6117,7 @@
       </c>
       <c r="U172" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T172)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="173" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5940,7 +6126,7 @@
       </c>
       <c r="U173" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T173)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="174" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5949,7 +6135,7 @@
       </c>
       <c r="U174" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T174)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="175" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5958,7 +6144,7 @@
       </c>
       <c r="U175" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T175)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="176" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5967,7 +6153,7 @@
       </c>
       <c r="U176" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T176)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="177" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5976,7 +6162,7 @@
       </c>
       <c r="U177" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T177)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="178" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5985,7 +6171,7 @@
       </c>
       <c r="U178" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T178)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="179" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -5994,7 +6180,7 @@
       </c>
       <c r="U179" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T179)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="180" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6003,7 +6189,7 @@
       </c>
       <c r="U180" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T180)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="181" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6012,7 +6198,7 @@
       </c>
       <c r="U181" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T181)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="182" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6021,7 +6207,7 @@
       </c>
       <c r="U182" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T182)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="183" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6030,7 +6216,7 @@
       </c>
       <c r="U183" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T183)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="184" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6039,7 +6225,7 @@
       </c>
       <c r="U184" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T184)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="185" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6048,7 +6234,7 @@
       </c>
       <c r="U185" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T185)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="186" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6057,7 +6243,7 @@
       </c>
       <c r="U186" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T186)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="187" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6066,7 +6252,7 @@
       </c>
       <c r="U187" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T187)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="188" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6075,7 +6261,7 @@
       </c>
       <c r="U188" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T188)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="189" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6084,7 +6270,7 @@
       </c>
       <c r="U189" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T189)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="190" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6093,7 +6279,7 @@
       </c>
       <c r="U190" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T190)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="191" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6102,7 +6288,7 @@
       </c>
       <c r="U191" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T191)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="192" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6111,7 +6297,7 @@
       </c>
       <c r="U192" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T192)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="193" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6120,7 +6306,7 @@
       </c>
       <c r="U193" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T193)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="194" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6129,7 +6315,7 @@
       </c>
       <c r="U194" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T194)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="195" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6138,7 +6324,7 @@
       </c>
       <c r="U195" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T195)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="196" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6147,7 +6333,7 @@
       </c>
       <c r="U196" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T196)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="197" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6156,7 +6342,7 @@
       </c>
       <c r="U197" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T197)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="198" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6165,7 +6351,7 @@
       </c>
       <c r="U198" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T198)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="199" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6174,7 +6360,7 @@
       </c>
       <c r="U199" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T199)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="200" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6183,7 +6369,7 @@
       </c>
       <c r="U200" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T200)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="201" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6192,7 +6378,7 @@
       </c>
       <c r="U201" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T201)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="202" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6201,7 +6387,7 @@
       </c>
       <c r="U202" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T202)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="203" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6210,7 +6396,7 @@
       </c>
       <c r="U203" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T203)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="204" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6219,7 +6405,7 @@
       </c>
       <c r="U204" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T204)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="205" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6228,7 +6414,7 @@
       </c>
       <c r="U205" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T205)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.7600080730395698E-2</v>
       </c>
     </row>
     <row r="206" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6237,7 +6423,7 @@
       </c>
       <c r="U206" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T206)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="207" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6246,7 +6432,7 @@
       </c>
       <c r="U207" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T207)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="208" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6255,7 +6441,7 @@
       </c>
       <c r="U208" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T208)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="209" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6264,7 +6450,7 @@
       </c>
       <c r="U209" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T209)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="210" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6273,7 +6459,7 @@
       </c>
       <c r="U210" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T210)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="211" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6282,7 +6468,7 @@
       </c>
       <c r="U211" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T211)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="212" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6291,7 +6477,7 @@
       </c>
       <c r="U212" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T212)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="213" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6300,7 +6486,7 @@
       </c>
       <c r="U213" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T213)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="214" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6309,7 +6495,7 @@
       </c>
       <c r="U214" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T214)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="215" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6318,7 +6504,7 @@
       </c>
       <c r="U215" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T215)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="216" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6327,7 +6513,7 @@
       </c>
       <c r="U216" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T216)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="217" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6336,7 +6522,7 @@
       </c>
       <c r="U217" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T217)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="218" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6345,7 +6531,7 @@
       </c>
       <c r="U218" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T218)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="219" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6354,7 +6540,7 @@
       </c>
       <c r="U219" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T219)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="220" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6363,7 +6549,7 @@
       </c>
       <c r="U220" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T220)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="221" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6372,7 +6558,7 @@
       </c>
       <c r="U221" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T221)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="222" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6381,7 +6567,7 @@
       </c>
       <c r="U222" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T222)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="223" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6390,7 +6576,7 @@
       </c>
       <c r="U223" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T223)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="224" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6399,7 +6585,7 @@
       </c>
       <c r="U224" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T224)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="225" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6408,7 +6594,7 @@
       </c>
       <c r="U225" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T225)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="226" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6417,7 +6603,7 @@
       </c>
       <c r="U226" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T226)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="227" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6426,7 +6612,7 @@
       </c>
       <c r="U227" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T227)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="228" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6435,7 +6621,7 @@
       </c>
       <c r="U228" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T228)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="229" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6444,7 +6630,7 @@
       </c>
       <c r="U229" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T229)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="230" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6453,7 +6639,7 @@
       </c>
       <c r="U230" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T230)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="231" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6462,7 +6648,7 @@
       </c>
       <c r="U231" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T231)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="232" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6471,7 +6657,7 @@
       </c>
       <c r="U232" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T232)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="233" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6480,7 +6666,7 @@
       </c>
       <c r="U233" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T233)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="234" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6489,7 +6675,7 @@
       </c>
       <c r="U234" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T234)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="235" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6498,7 +6684,7 @@
       </c>
       <c r="U235" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T235)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="236" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6507,7 +6693,7 @@
       </c>
       <c r="U236" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T236)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="237" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6516,7 +6702,7 @@
       </c>
       <c r="U237" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T237)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="238" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6525,7 +6711,7 @@
       </c>
       <c r="U238" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T238)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="239" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6534,7 +6720,7 @@
       </c>
       <c r="U239" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T239)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="240" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6543,7 +6729,7 @@
       </c>
       <c r="U240" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T240)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="241" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6552,7 +6738,7 @@
       </c>
       <c r="U241" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T241)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="242" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6561,7 +6747,7 @@
       </c>
       <c r="U242" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T242)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="243" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6570,7 +6756,7 @@
       </c>
       <c r="U243" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T243)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="244" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6579,7 +6765,7 @@
       </c>
       <c r="U244" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T244)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="245" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6588,7 +6774,7 @@
       </c>
       <c r="U245" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T245)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="246" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6597,7 +6783,7 @@
       </c>
       <c r="U246" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T246)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="247" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6606,7 +6792,7 @@
       </c>
       <c r="U247" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T247)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="248" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6615,7 +6801,7 @@
       </c>
       <c r="U248" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T248)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="249" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6624,7 +6810,7 @@
       </c>
       <c r="U249" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T249)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="250" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6633,7 +6819,7 @@
       </c>
       <c r="U250" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T250)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="251" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6642,7 +6828,7 @@
       </c>
       <c r="U251" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T251)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="252" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6651,7 +6837,7 @@
       </c>
       <c r="U252" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T252)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="253" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6660,7 +6846,7 @@
       </c>
       <c r="U253" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T253)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="254" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6669,7 +6855,7 @@
       </c>
       <c r="U254" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T254)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="255" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6678,7 +6864,7 @@
       </c>
       <c r="U255" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T255)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.664122250654085E-2</v>
       </c>
     </row>
     <row r="256" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6687,7 +6873,7 @@
       </c>
       <c r="U256" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T256)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="257" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6696,7 +6882,7 @@
       </c>
       <c r="U257" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T257)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="258" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6705,7 +6891,7 @@
       </c>
       <c r="U258" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T258)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="259" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6714,7 +6900,7 @@
       </c>
       <c r="U259" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T259)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="260" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6723,7 +6909,7 @@
       </c>
       <c r="U260" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T260)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="261" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6732,7 +6918,7 @@
       </c>
       <c r="U261" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T261)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="262" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6741,7 +6927,7 @@
       </c>
       <c r="U262" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T262)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="263" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6750,7 +6936,7 @@
       </c>
       <c r="U263" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T263)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="264" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6759,7 +6945,7 @@
       </c>
       <c r="U264" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T264)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="265" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6768,7 +6954,7 @@
       </c>
       <c r="U265" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T265)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="266" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6777,7 +6963,7 @@
       </c>
       <c r="U266" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T266)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="267" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6786,7 +6972,7 @@
       </c>
       <c r="U267" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T267)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="268" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6795,7 +6981,7 @@
       </c>
       <c r="U268" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T268)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="269" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6804,7 +6990,7 @@
       </c>
       <c r="U269" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T269)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="270" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6813,7 +6999,7 @@
       </c>
       <c r="U270" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T270)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="271" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6822,7 +7008,7 @@
       </c>
       <c r="U271" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T271)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="272" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6831,7 +7017,7 @@
       </c>
       <c r="U272" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T272)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="273" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6840,7 +7026,7 @@
       </c>
       <c r="U273" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T273)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="274" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6849,7 +7035,7 @@
       </c>
       <c r="U274" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T274)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="275" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6858,7 +7044,7 @@
       </c>
       <c r="U275" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T275)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="276" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6867,7 +7053,7 @@
       </c>
       <c r="U276" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T276)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="277" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6876,7 +7062,7 @@
       </c>
       <c r="U277" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T277)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="278" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6885,7 +7071,7 @@
       </c>
       <c r="U278" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T278)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="279" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6894,7 +7080,7 @@
       </c>
       <c r="U279" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T279)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="280" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6903,7 +7089,7 @@
       </c>
       <c r="U280" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T280)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="281" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6912,7 +7098,7 @@
       </c>
       <c r="U281" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T281)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="282" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6921,7 +7107,7 @@
       </c>
       <c r="U282" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T282)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="283" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6930,7 +7116,7 @@
       </c>
       <c r="U283" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T283)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="284" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6939,7 +7125,7 @@
       </c>
       <c r="U284" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T284)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="285" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6948,7 +7134,7 @@
       </c>
       <c r="U285" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T285)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="286" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6957,7 +7143,7 @@
       </c>
       <c r="U286" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T286)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="287" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6966,7 +7152,7 @@
       </c>
       <c r="U287" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T287)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="288" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6975,7 +7161,7 @@
       </c>
       <c r="U288" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T288)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="289" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6984,7 +7170,7 @@
       </c>
       <c r="U289" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T289)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="290" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -6993,7 +7179,7 @@
       </c>
       <c r="U290" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T290)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="291" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7002,7 +7188,7 @@
       </c>
       <c r="U291" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T291)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="292" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7011,7 +7197,7 @@
       </c>
       <c r="U292" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T292)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="293" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7020,7 +7206,7 @@
       </c>
       <c r="U293" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T293)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="294" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7029,7 +7215,7 @@
       </c>
       <c r="U294" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T294)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="295" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7038,7 +7224,7 @@
       </c>
       <c r="U295" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T295)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="296" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7047,7 +7233,7 @@
       </c>
       <c r="U296" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T296)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="297" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7056,7 +7242,7 @@
       </c>
       <c r="U297" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T297)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="298" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7065,7 +7251,7 @@
       </c>
       <c r="U298" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T298)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="299" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7074,7 +7260,7 @@
       </c>
       <c r="U299" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T299)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="300" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7083,7 +7269,7 @@
       </c>
       <c r="U300" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T300)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="301" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7092,7 +7278,7 @@
       </c>
       <c r="U301" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T301)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="302" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7101,7 +7287,7 @@
       </c>
       <c r="U302" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T302)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="303" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7110,7 +7296,7 @@
       </c>
       <c r="U303" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T303)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="304" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7119,7 +7305,7 @@
       </c>
       <c r="U304" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T304)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="305" spans="20:21" x14ac:dyDescent="0.55000000000000004">
@@ -7128,7 +7314,7 @@
       </c>
       <c r="U305" s="2">
         <f>_xll.FP.PWFLAT.VALUE($R$6, T305)</f>
-        <v>2.5270297346217076E-2</v>
+        <v>2.5859958276457606E-2</v>
       </c>
     </row>
     <row r="306" spans="20:21" x14ac:dyDescent="0.55000000000000004">
